--- a/qasm_analysis_FAA.xlsx
+++ b/qasm_analysis_FAA.xlsx
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.794087593278973</v>
+        <v>0.2458053342597525</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6665613444243489</v>
+        <v>0.0918648380891753</v>
       </c>
       <c r="D2" t="n">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="E2" t="n">
         <v>194</v>
@@ -486,10 +486,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9174163036578541</v>
+        <v>0.4348566230009033</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9174163036578541</v>
+        <v>0.4345957742468998</v>
       </c>
       <c r="D3" t="n">
         <v>76</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9427119948699935</v>
+        <v>0.692436924878914</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9427119948699935</v>
+        <v>0.6913298563357789</v>
       </c>
       <c r="D4" t="n">
         <v>50</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5763703998104489</v>
+        <v>3.113862731914875e-06</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5570302695747118</v>
+        <v>2.41751578651717e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="E5" t="n">
-        <v>463</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9888517742007289</v>
+        <v>0.9233057967806128</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9888517742007289</v>
+        <v>0.9211845277773261</v>
       </c>
       <c r="D6" t="n">
         <v>9</v>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1109416747453941</v>
+        <v>-3.233413201939785e-24</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1033835553325855</v>
+        <v>-4.339414647765469e-24</v>
       </c>
       <c r="D7" t="n">
-        <v>1942</v>
+        <v>1956</v>
       </c>
       <c r="E7" t="n">
-        <v>1881</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +581,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7246677550460032</v>
+        <v>0.0033691745856039</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7139843059049574</v>
+        <v>0.002842487236687393</v>
       </c>
       <c r="D8" t="n">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="E8" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9">
@@ -600,16 +600,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5622177919111292</v>
+        <v>0.01697962545923275</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5526653529112479</v>
+        <v>0.01080649702871572</v>
       </c>
       <c r="D9" t="n">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="E9" t="n">
-        <v>491</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8559200020220451</v>
+        <v>0.4296789496334231</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8559200020220451</v>
+        <v>0.4296789496334231</v>
       </c>
       <c r="D10" t="n">
         <v>128</v>
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01312500083084587</v>
+        <v>7.734303355205756e-11</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01278598179815345</v>
+        <v>4.992902008063035e-11</v>
       </c>
       <c r="D11" t="n">
-        <v>3651</v>
+        <v>3681</v>
       </c>
       <c r="E11" t="n">
-        <v>3627</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="12">
@@ -657,10 +657,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7051762522682651</v>
+        <v>0.03101493457920357</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7051762522682651</v>
+        <v>0.03096225134964719</v>
       </c>
       <c r="D12" t="n">
         <v>312</v>
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8473898044350346</v>
+        <v>0.2731087548690828</v>
       </c>
       <c r="C13" t="n">
-        <v>0.845440842458721</v>
+        <v>0.2637969012689081</v>
       </c>
       <c r="D13" t="n">
         <v>144</v>
       </c>
       <c r="E13" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9414159976300367</v>
+        <v>0.6507492579104835</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9370909671515701</v>
+        <v>0.63324155586952</v>
       </c>
       <c r="D14" t="n">
         <v>54</v>
@@ -714,10 +714,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.963240251750491</v>
+        <v>0.7593130704952978</v>
       </c>
       <c r="C15" t="n">
-        <v>0.963240251750491</v>
+        <v>0.7534885219117823</v>
       </c>
       <c r="D15" t="n">
         <v>32</v>
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8915733098128749</v>
+        <v>0.4411570705827381</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8882748002872269</v>
+        <v>0.4306287970055626</v>
       </c>
       <c r="D16" t="n">
+        <v>105</v>
+      </c>
+      <c r="E16" t="n">
         <v>102</v>
-      </c>
-      <c r="E16" t="n">
-        <v>99</v>
       </c>
     </row>
     <row r="17">
@@ -752,10 +752,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9250338180766212</v>
+        <v>0.6176074411500895</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9250338180766212</v>
+        <v>0.6168667197057776</v>
       </c>
       <c r="D17" t="n">
         <v>66</v>

--- a/qasm_analysis_FAA.xlsx
+++ b/qasm_analysis_FAA.xlsx
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2458053342597525</v>
+        <v>0.2463960051175041</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0918648380891753</v>
+        <v>0.08281662434485339</v>
       </c>
       <c r="D2" t="n">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="E2" t="n">
         <v>194</v>
@@ -489,7 +489,7 @@
         <v>0.4348566230009033</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4345957742468998</v>
+        <v>0.4342047944680558</v>
       </c>
       <c r="D3" t="n">
         <v>76</v>
@@ -524,13 +524,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.113862731914875e-06</v>
+        <v>3.127281843040124e-06</v>
       </c>
       <c r="C5" t="n">
-        <v>2.41751578651717e-06</v>
+        <v>1.96923229072785e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>476</v>
+        <v>509</v>
       </c>
       <c r="E5" t="n">
         <v>436</v>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.233413201939785e-24</v>
+        <v>-3.189883214351137e-24</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.339414647765469e-24</v>
+        <v>-7.874071819255612e-24</v>
       </c>
       <c r="D7" t="n">
-        <v>1956</v>
+        <v>1967</v>
       </c>
       <c r="E7" t="n">
-        <v>1923</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +581,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0033691745856039</v>
+        <v>0.003589987327475219</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002842487236687393</v>
+        <v>0.002925460724059054</v>
       </c>
       <c r="D8" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E8" t="n">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9">
@@ -600,16 +600,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01697962545923275</v>
+        <v>0.01671284838886192</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01080649702871572</v>
+        <v>0.01088913695132789</v>
       </c>
       <c r="D9" t="n">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E9" t="n">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10">
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.734303355205756e-11</v>
+        <v>7.263794386259762e-11</v>
       </c>
       <c r="C11" t="n">
-        <v>4.992902008063035e-11</v>
+        <v>4.281413039908872e-11</v>
       </c>
       <c r="D11" t="n">
-        <v>3681</v>
+        <v>3705</v>
       </c>
       <c r="E11" t="n">
-        <v>3612</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="12">
@@ -657,10 +657,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03101493457920357</v>
+        <v>0.03105217670364126</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03096225134964719</v>
+        <v>0.03095296360307887</v>
       </c>
       <c r="D12" t="n">
         <v>312</v>
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2731087548690828</v>
+        <v>0.2725309561027044</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2637969012689081</v>
+        <v>0.2544924246032119</v>
       </c>
       <c r="D13" t="n">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E13" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6507492579104835</v>
+        <v>0.658629096420053</v>
       </c>
       <c r="C14" t="n">
-        <v>0.63324155586952</v>
+        <v>0.6329882972391327</v>
       </c>
       <c r="D14" t="n">
         <v>54</v>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4411570705827381</v>
+        <v>0.4644080073711088</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4306287970055626</v>
+        <v>0.4253491238158417</v>
       </c>
       <c r="D16" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E16" t="n">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17">
@@ -752,10 +752,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6176074411500895</v>
+        <v>0.618349052038167</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6168667197057776</v>
+        <v>0.6171135280926713</v>
       </c>
       <c r="D17" t="n">
         <v>66</v>
